--- a/src/main/java/com/excel/lib/util/SampleExcel.xlsx
+++ b/src/main/java/com/excel/lib/util/SampleExcel.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/workspace/ExcelUtil/src/main/java/com/excel/lib/util/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="760" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="2235" yWindow="765" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="Regsitration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -73,13 +68,23 @@
   </si>
   <si>
     <t>kali12333</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Status2021-03-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,10 +127,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -218,7 +226,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -402,61 +410,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.328125" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -465,19 +532,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -485,7 +552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
